--- a/backend/arena/calc7_greg.xlsx
+++ b/backend/arena/calc7_greg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I538955/Documents/GitHub/lasso-python/backend/arena/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBAE7CE-EA35-7E40-8B91-5A186E6574B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BFE2A3-75AA-5943-B8BD-65273082408B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="41120" windowHeight="25720" xr2:uid="{3E8CBA96-1B37-774A-8022-88DC9C8D0A33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>create</t>
   </si>
@@ -44,13 +44,16 @@
     <t>python.Array</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>Calculator</t>
   </si>
   <si>
-    <t>addme</t>
-  </si>
-  <si>
     <t>subme</t>
+  </si>
+  <si>
+    <t>__len__</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="397" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,21 +458,21 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">

--- a/backend/arena/calc7_greg.xlsx
+++ b/backend/arena/calc7_greg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I538955/Documents/GitHub/lasso-python/backend/arena/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BFE2A3-75AA-5943-B8BD-65273082408B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3D6336-D1CD-114C-8DC8-05E1EDFB9F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="41120" windowHeight="25720" xr2:uid="{3E8CBA96-1B37-774A-8022-88DC9C8D0A33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>create</t>
   </si>
@@ -47,13 +47,10 @@
     <t>A1</t>
   </si>
   <si>
-    <t>Calculator</t>
+    <t>mean</t>
   </si>
   <si>
-    <t>subme</t>
-  </si>
-  <si>
-    <t>__len__</t>
+    <t>Matrix</t>
   </si>
 </sst>
 </file>
@@ -425,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85FE23D7-9982-3A4C-972B-212B1CF75A88}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="397" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -458,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -469,21 +466,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
